--- a/Tables/PatientInsurancePolicy.xlsx
+++ b/Tables/PatientInsurancePolicy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Вячеслав\Desktop\Stomatology\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CFB3F0-53E9-4651-B70E-9C539B2DB99D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934CEF49-EC30-4C91-A838-E685811FF589}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,9 +26,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="12">
-  <si>
-    <t>Id</t>
-  </si>
   <si>
     <t>Серия полиса</t>
   </si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>Номер полиса</t>
+  </si>
+  <si>
+    <t>Id пациента</t>
   </si>
 </sst>
 </file>
@@ -381,25 +381,25 @@
   <dimension ref="A1:C751"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -407,7 +407,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>443313</v>
@@ -418,7 +418,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>424305</v>
@@ -429,7 +429,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>315134</v>
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>843362</v>
@@ -451,7 +451,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>578632</v>
@@ -462,7 +462,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>292285</v>
@@ -473,7 +473,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>741725</v>
@@ -484,7 +484,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>763343</v>
@@ -495,7 +495,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>938159</v>
@@ -506,7 +506,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>456603</v>
@@ -517,7 +517,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>121624</v>
@@ -528,7 +528,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>175761</v>
@@ -539,7 +539,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>498528</v>
@@ -550,7 +550,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>216414</v>
@@ -561,7 +561,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16">
         <v>766954</v>
@@ -572,7 +572,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <v>399587</v>
@@ -583,7 +583,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>297998</v>
@@ -594,7 +594,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>131592</v>
@@ -605,7 +605,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20">
         <v>859697</v>
@@ -616,7 +616,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21">
         <v>330922</v>
@@ -627,7 +627,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22">
         <v>806494</v>
@@ -638,7 +638,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23">
         <v>322925</v>
@@ -649,7 +649,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24">
         <v>203846</v>
@@ -660,7 +660,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>749415</v>
@@ -671,7 +671,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <v>745143</v>
@@ -682,7 +682,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27">
         <v>937340</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28">
         <v>551815</v>
@@ -704,7 +704,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29">
         <v>689872</v>
@@ -715,7 +715,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30">
         <v>642030</v>
@@ -726,7 +726,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31">
         <v>544822</v>
@@ -737,7 +737,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C32">
         <v>570571</v>
@@ -748,7 +748,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33">
         <v>591752</v>
@@ -759,7 +759,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34">
         <v>808065</v>
@@ -770,7 +770,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C35">
         <v>350616</v>
@@ -781,7 +781,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36">
         <v>533622</v>
@@ -792,7 +792,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37">
         <v>237335</v>
@@ -803,7 +803,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38">
         <v>195486</v>
@@ -814,7 +814,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39">
         <v>636516</v>
@@ -825,7 +825,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C40">
         <v>639419</v>
@@ -836,7 +836,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41">
         <v>312310</v>
@@ -847,7 +847,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42">
         <v>917133</v>
@@ -858,7 +858,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43">
         <v>998317</v>
@@ -869,7 +869,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C44">
         <v>518939</v>
@@ -880,7 +880,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45">
         <v>598401</v>
@@ -891,7 +891,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46">
         <v>767083</v>
@@ -902,7 +902,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C47">
         <v>277415</v>
@@ -913,7 +913,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48">
         <v>710842</v>
@@ -924,7 +924,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49">
         <v>642369</v>
@@ -935,7 +935,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C50">
         <v>628260</v>
@@ -946,7 +946,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C51">
         <v>564739</v>
@@ -957,7 +957,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52">
         <v>215909</v>
@@ -968,7 +968,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C53">
         <v>706389</v>
@@ -979,7 +979,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C54">
         <v>762280</v>
@@ -990,7 +990,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C55">
         <v>638884</v>
@@ -1001,7 +1001,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C56">
         <v>690980</v>
@@ -1012,7 +1012,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C57">
         <v>410641</v>
@@ -1023,7 +1023,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C58">
         <v>459186</v>
@@ -1034,7 +1034,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C59">
         <v>491564</v>
@@ -1045,7 +1045,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C60">
         <v>449109</v>
@@ -1056,7 +1056,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C61">
         <v>497166</v>
@@ -1067,7 +1067,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C62">
         <v>689132</v>
@@ -1078,7 +1078,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C63">
         <v>835079</v>
@@ -1089,7 +1089,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C64">
         <v>651226</v>
@@ -1100,7 +1100,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C65">
         <v>894509</v>
@@ -1111,7 +1111,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C66">
         <v>640389</v>
@@ -1122,7 +1122,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C67">
         <v>867799</v>
@@ -1133,7 +1133,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C68">
         <v>878356</v>
@@ -1144,7 +1144,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C69">
         <v>370881</v>
@@ -1155,7 +1155,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C70">
         <v>959187</v>
@@ -1166,7 +1166,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C71">
         <v>961275</v>
@@ -1177,7 +1177,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C72">
         <v>745483</v>
@@ -1188,7 +1188,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C73">
         <v>237668</v>
@@ -1199,7 +1199,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C74">
         <v>786426</v>
@@ -1210,7 +1210,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C75">
         <v>730229</v>
@@ -1221,7 +1221,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C76">
         <v>689982</v>
@@ -1232,7 +1232,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C77">
         <v>757188</v>
@@ -1243,7 +1243,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C78">
         <v>600383</v>
@@ -1254,7 +1254,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C79">
         <v>877431</v>
@@ -1265,7 +1265,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C80">
         <v>824361</v>
@@ -1276,7 +1276,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C81">
         <v>713052</v>
@@ -1287,7 +1287,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C82">
         <v>556356</v>
@@ -1298,7 +1298,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C83">
         <v>255604</v>
@@ -1309,7 +1309,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C84">
         <v>943671</v>
@@ -1320,7 +1320,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C85">
         <v>247119</v>
@@ -1331,7 +1331,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C86">
         <v>799230</v>
@@ -1342,7 +1342,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C87">
         <v>782352</v>
@@ -1353,7 +1353,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C88">
         <v>905732</v>
@@ -1364,7 +1364,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C89">
         <v>453060</v>
@@ -1375,7 +1375,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C90">
         <v>609694</v>
@@ -1386,7 +1386,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C91">
         <v>415353</v>
@@ -1397,7 +1397,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C92">
         <v>362181</v>
@@ -1408,7 +1408,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C93">
         <v>111695</v>
@@ -1419,7 +1419,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C94">
         <v>938281</v>
@@ -1430,7 +1430,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C95">
         <v>796628</v>
@@ -1441,7 +1441,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C96">
         <v>843291</v>
@@ -1452,7 +1452,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C97">
         <v>496958</v>
@@ -1463,7 +1463,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C98">
         <v>706853</v>
@@ -1474,7 +1474,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C99">
         <v>179669</v>
@@ -1485,7 +1485,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C100">
         <v>719831</v>
@@ -1496,7 +1496,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C101">
         <v>859928</v>
@@ -1507,7 +1507,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C102">
         <v>268516</v>
@@ -1518,7 +1518,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C103">
         <v>716388</v>
@@ -1529,7 +1529,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C104">
         <v>261447</v>
@@ -1540,7 +1540,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C105">
         <v>217224</v>
@@ -1551,7 +1551,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C106">
         <v>992543</v>
@@ -1562,7 +1562,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C107">
         <v>634934</v>
@@ -1573,7 +1573,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C108">
         <v>221904</v>
@@ -1584,7 +1584,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C109">
         <v>219314</v>
@@ -1595,7 +1595,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C110">
         <v>403761</v>
@@ -1606,7 +1606,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C111">
         <v>853522</v>
@@ -1617,7 +1617,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C112">
         <v>891442</v>
@@ -1628,7 +1628,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C113">
         <v>203516</v>
@@ -1639,7 +1639,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C114">
         <v>183982</v>
@@ -1650,7 +1650,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C115">
         <v>666099</v>
@@ -1661,7 +1661,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C116">
         <v>735113</v>
@@ -1672,7 +1672,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C117">
         <v>469334</v>
@@ -1683,7 +1683,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C118">
         <v>667492</v>
@@ -1694,7 +1694,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C119">
         <v>593343</v>
@@ -1705,7 +1705,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C120">
         <v>566445</v>
@@ -1716,7 +1716,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C121">
         <v>875833</v>
@@ -1727,7 +1727,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C122">
         <v>141171</v>
@@ -1738,7 +1738,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C123">
         <v>205273</v>
@@ -1749,7 +1749,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C124">
         <v>722790</v>
@@ -1760,7 +1760,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C125">
         <v>878794</v>
@@ -1771,7 +1771,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C126">
         <v>491459</v>
@@ -1782,7 +1782,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C127">
         <v>484643</v>
@@ -1793,7 +1793,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C128">
         <v>326517</v>
@@ -1804,7 +1804,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C129">
         <v>477429</v>
@@ -1815,7 +1815,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C130">
         <v>633286</v>
@@ -1826,7 +1826,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C131">
         <v>641322</v>
@@ -1837,7 +1837,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C132">
         <v>139260</v>
@@ -1848,7 +1848,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C133">
         <v>932213</v>
@@ -1859,7 +1859,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C134">
         <v>274439</v>
@@ -1870,7 +1870,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C135">
         <v>564454</v>
@@ -1881,7 +1881,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C136">
         <v>701873</v>
@@ -1892,7 +1892,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C137">
         <v>361916</v>
@@ -1903,7 +1903,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C138">
         <v>178236</v>
@@ -1914,7 +1914,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C139">
         <v>814323</v>
@@ -1925,7 +1925,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C140">
         <v>986302</v>
@@ -1936,7 +1936,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C141">
         <v>857616</v>
@@ -1947,7 +1947,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C142">
         <v>154703</v>
@@ -1958,7 +1958,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C143">
         <v>828728</v>
@@ -1969,7 +1969,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C144">
         <v>725887</v>
@@ -1980,7 +1980,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C145">
         <v>633982</v>
@@ -1991,7 +1991,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C146">
         <v>285585</v>
@@ -2002,7 +2002,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C147">
         <v>827011</v>
@@ -2013,7 +2013,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C148">
         <v>338066</v>
@@ -2024,7 +2024,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C149">
         <v>448696</v>
@@ -2035,7 +2035,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C150">
         <v>393280</v>
@@ -2046,7 +2046,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C151">
         <v>180070</v>
@@ -2057,7 +2057,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C152">
         <v>890480</v>
@@ -2068,7 +2068,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C153">
         <v>761337</v>
@@ -2079,7 +2079,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C154">
         <v>172923</v>
@@ -2090,7 +2090,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C155">
         <v>925178</v>
@@ -2101,7 +2101,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C156">
         <v>318204</v>
@@ -2112,7 +2112,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C157">
         <v>253392</v>
@@ -2123,7 +2123,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C158">
         <v>411005</v>
@@ -2134,7 +2134,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C159">
         <v>929132</v>
@@ -2145,7 +2145,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C160">
         <v>275976</v>
@@ -2156,7 +2156,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C161">
         <v>286568</v>
@@ -2167,7 +2167,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C162">
         <v>595031</v>
@@ -2178,7 +2178,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C163">
         <v>426441</v>
@@ -2189,7 +2189,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C164">
         <v>311845</v>
@@ -2200,7 +2200,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C165">
         <v>962177</v>
@@ -2211,7 +2211,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C166">
         <v>205971</v>
@@ -2222,7 +2222,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C167">
         <v>157505</v>
@@ -2233,7 +2233,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C168">
         <v>854429</v>
@@ -2244,7 +2244,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C169">
         <v>300816</v>
@@ -2255,7 +2255,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C170">
         <v>282085</v>
@@ -2266,7 +2266,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C171">
         <v>245025</v>
@@ -2277,7 +2277,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C172">
         <v>501317</v>
@@ -2288,7 +2288,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C173">
         <v>388438</v>
@@ -2299,7 +2299,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C174">
         <v>564083</v>
@@ -2310,7 +2310,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C175">
         <v>967952</v>
@@ -2321,7 +2321,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C176">
         <v>539817</v>
@@ -2332,7 +2332,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C177">
         <v>849458</v>
@@ -2343,7 +2343,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C178">
         <v>325858</v>
@@ -2354,7 +2354,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C179">
         <v>180654</v>
@@ -2365,7 +2365,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C180">
         <v>497730</v>
@@ -2376,7 +2376,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C181">
         <v>542660</v>
@@ -2387,7 +2387,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C182">
         <v>446704</v>
@@ -2398,7 +2398,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C183">
         <v>752381</v>
@@ -2409,7 +2409,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C184">
         <v>745374</v>
@@ -2420,7 +2420,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C185">
         <v>675995</v>
@@ -2431,7 +2431,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C186">
         <v>391568</v>
@@ -2442,7 +2442,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C187">
         <v>960204</v>
@@ -2453,7 +2453,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C188">
         <v>194321</v>
@@ -2464,7 +2464,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C189">
         <v>514938</v>
@@ -2475,7 +2475,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C190">
         <v>146812</v>
@@ -2486,7 +2486,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C191">
         <v>328362</v>
@@ -2497,7 +2497,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C192">
         <v>466812</v>
@@ -2508,7 +2508,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C193">
         <v>933043</v>
@@ -2519,7 +2519,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C194">
         <v>114416</v>
@@ -2530,7 +2530,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C195">
         <v>808610</v>
@@ -2541,7 +2541,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C196">
         <v>471827</v>
@@ -2552,7 +2552,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C197">
         <v>936490</v>
@@ -2563,7 +2563,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C198">
         <v>792104</v>
@@ -2574,7 +2574,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C199">
         <v>176476</v>
@@ -2585,7 +2585,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C200">
         <v>649162</v>
@@ -2596,7 +2596,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C201">
         <v>649470</v>
@@ -2607,7 +2607,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C202">
         <v>465220</v>
@@ -2618,7 +2618,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C203">
         <v>416552</v>
@@ -2629,7 +2629,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C204">
         <v>184940</v>
@@ -2640,7 +2640,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C205">
         <v>244778</v>
@@ -2651,7 +2651,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C206">
         <v>667741</v>
@@ -2662,7 +2662,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C207">
         <v>344248</v>
@@ -2673,7 +2673,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C208">
         <v>897415</v>
@@ -2684,7 +2684,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C209">
         <v>258266</v>
@@ -2695,7 +2695,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C210">
         <v>690025</v>
@@ -2706,7 +2706,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C211">
         <v>556751</v>
@@ -2717,7 +2717,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C212">
         <v>255198</v>
@@ -2728,7 +2728,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C213">
         <v>869148</v>
@@ -2739,7 +2739,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C214">
         <v>580904</v>
@@ -2750,7 +2750,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C215">
         <v>799839</v>
@@ -2761,7 +2761,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C216">
         <v>708100</v>
@@ -2772,7 +2772,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C217">
         <v>946351</v>
@@ -2783,7 +2783,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C218">
         <v>645412</v>
@@ -2794,7 +2794,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C219">
         <v>936342</v>
@@ -2805,7 +2805,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C220">
         <v>220291</v>
@@ -2816,7 +2816,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C221">
         <v>123822</v>
@@ -2827,7 +2827,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C222">
         <v>125631</v>
@@ -2838,7 +2838,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C223">
         <v>210553</v>
@@ -2849,7 +2849,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C224">
         <v>379942</v>
@@ -2860,7 +2860,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C225">
         <v>376338</v>
@@ -2871,7 +2871,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C226">
         <v>767091</v>
@@ -2882,7 +2882,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C227">
         <v>938008</v>
@@ -2893,7 +2893,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C228">
         <v>805882</v>
@@ -2904,7 +2904,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C229">
         <v>505958</v>
@@ -2915,7 +2915,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C230">
         <v>668352</v>
@@ -2926,7 +2926,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C231">
         <v>808314</v>
@@ -2937,7 +2937,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C232">
         <v>304635</v>
@@ -2948,7 +2948,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C233">
         <v>505598</v>
@@ -2959,7 +2959,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C234">
         <v>404452</v>
@@ -2970,7 +2970,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C235">
         <v>671106</v>
@@ -2981,7 +2981,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C236">
         <v>811919</v>
@@ -2992,7 +2992,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C237">
         <v>908532</v>
@@ -3003,7 +3003,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C238">
         <v>224017</v>
@@ -3014,7 +3014,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C239">
         <v>200737</v>
@@ -3025,7 +3025,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C240">
         <v>957491</v>
@@ -3036,7 +3036,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C241">
         <v>934666</v>
@@ -3047,7 +3047,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C242">
         <v>515856</v>
@@ -3058,7 +3058,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C243">
         <v>313788</v>
@@ -3069,7 +3069,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C244">
         <v>812686</v>
@@ -3080,7 +3080,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C245">
         <v>851611</v>
@@ -3091,7 +3091,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C246">
         <v>576742</v>
@@ -3102,7 +3102,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C247">
         <v>382396</v>
@@ -3113,7 +3113,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C248">
         <v>162234</v>
@@ -3124,7 +3124,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C249">
         <v>921629</v>
@@ -3135,7 +3135,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C250">
         <v>634587</v>
@@ -3146,7 +3146,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C251">
         <v>487340</v>
@@ -3157,7 +3157,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C252">
         <v>789000</v>
@@ -3168,7 +3168,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C253">
         <v>215727</v>
@@ -3179,7 +3179,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C254">
         <v>308037</v>
@@ -3190,7 +3190,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C255">
         <v>447882</v>
@@ -3201,7 +3201,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C256">
         <v>837351</v>
@@ -3212,7 +3212,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C257">
         <v>221689</v>
@@ -3223,7 +3223,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C258">
         <v>571690</v>
@@ -3234,7 +3234,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C259">
         <v>294548</v>
@@ -3245,7 +3245,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C260">
         <v>571232</v>
@@ -3256,7 +3256,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C261">
         <v>529417</v>
@@ -3267,7 +3267,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C262">
         <v>894466</v>
@@ -3278,7 +3278,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C263">
         <v>761875</v>
@@ -3289,7 +3289,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C264">
         <v>578359</v>
@@ -3300,7 +3300,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C265">
         <v>814410</v>
@@ -3311,7 +3311,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C266">
         <v>373310</v>
@@ -3322,7 +3322,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C267">
         <v>433805</v>
@@ -3333,7 +3333,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C268">
         <v>726744</v>
@@ -3344,7 +3344,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C269">
         <v>369212</v>
@@ -3355,7 +3355,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C270">
         <v>832665</v>
@@ -3366,7 +3366,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C271">
         <v>253213</v>
@@ -3377,7 +3377,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C272">
         <v>771408</v>
@@ -3388,7 +3388,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C273">
         <v>650707</v>
@@ -3399,7 +3399,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C274">
         <v>630551</v>
@@ -3410,7 +3410,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C275">
         <v>950079</v>
@@ -3421,7 +3421,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C276">
         <v>583994</v>
@@ -3432,7 +3432,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C277">
         <v>651944</v>
@@ -3443,7 +3443,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C278">
         <v>540325</v>
@@ -3454,7 +3454,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C279">
         <v>204521</v>
@@ -3465,7 +3465,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C280">
         <v>187755</v>
@@ -3476,7 +3476,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C281">
         <v>743550</v>
@@ -3487,7 +3487,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C282">
         <v>691528</v>
@@ -3498,7 +3498,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C283">
         <v>207155</v>
@@ -3509,7 +3509,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C284">
         <v>694665</v>
@@ -3520,7 +3520,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C285">
         <v>432593</v>
@@ -3531,7 +3531,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C286">
         <v>928255</v>
@@ -3542,7 +3542,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C287">
         <v>341021</v>
@@ -3553,7 +3553,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C288">
         <v>548054</v>
@@ -3564,7 +3564,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C289">
         <v>834258</v>
@@ -3575,7 +3575,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C290">
         <v>960977</v>
@@ -3586,7 +3586,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C291">
         <v>978698</v>
@@ -3597,7 +3597,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C292">
         <v>579104</v>
@@ -3608,7 +3608,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C293">
         <v>432065</v>
@@ -3619,7 +3619,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C294">
         <v>593920</v>
@@ -3630,7 +3630,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C295">
         <v>795557</v>
@@ -3641,7 +3641,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C296">
         <v>893695</v>
@@ -3652,7 +3652,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C297">
         <v>589762</v>
@@ -3663,7 +3663,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C298">
         <v>547050</v>
@@ -3674,7 +3674,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C299">
         <v>203606</v>
@@ -3685,7 +3685,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C300">
         <v>772393</v>
@@ -3696,7 +3696,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C301">
         <v>368604</v>
@@ -3707,7 +3707,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C302">
         <v>318219</v>
@@ -3718,7 +3718,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C303">
         <v>635956</v>
@@ -3729,7 +3729,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C304">
         <v>561862</v>
@@ -3740,7 +3740,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C305">
         <v>442021</v>
@@ -3751,7 +3751,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C306">
         <v>884236</v>
@@ -3762,7 +3762,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C307">
         <v>340415</v>
@@ -3773,7 +3773,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C308">
         <v>206334</v>
@@ -3784,7 +3784,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C309">
         <v>542768</v>
@@ -3795,7 +3795,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C310">
         <v>220751</v>
@@ -3806,7 +3806,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C311">
         <v>992385</v>
@@ -3817,7 +3817,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C312">
         <v>786578</v>
@@ -3828,7 +3828,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C313">
         <v>747756</v>
@@ -3839,7 +3839,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C314">
         <v>875655</v>
@@ -3850,7 +3850,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C315">
         <v>949329</v>
@@ -3861,7 +3861,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C316">
         <v>840456</v>
@@ -3872,7 +3872,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C317">
         <v>672703</v>
@@ -3883,7 +3883,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C318">
         <v>806299</v>
@@ -3894,7 +3894,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C319">
         <v>332942</v>
@@ -3905,7 +3905,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C320">
         <v>332384</v>
@@ -3916,7 +3916,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C321">
         <v>724710</v>
@@ -3927,7 +3927,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C322">
         <v>298490</v>
@@ -3938,7 +3938,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C323">
         <v>743200</v>
@@ -3949,7 +3949,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C324">
         <v>827209</v>
@@ -3960,7 +3960,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C325">
         <v>542687</v>
@@ -3971,7 +3971,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C326">
         <v>368368</v>
@@ -3982,7 +3982,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C327">
         <v>664128</v>
@@ -3993,7 +3993,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C328">
         <v>586159</v>
@@ -4004,7 +4004,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C329">
         <v>815776</v>
@@ -4015,7 +4015,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C330">
         <v>130113</v>
@@ -4026,7 +4026,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C331">
         <v>698028</v>
@@ -4037,7 +4037,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C332">
         <v>733294</v>
@@ -4048,7 +4048,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C333">
         <v>164385</v>
@@ -4059,7 +4059,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C334">
         <v>478191</v>
@@ -4070,7 +4070,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C335">
         <v>230551</v>
@@ -4081,7 +4081,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C336">
         <v>698126</v>
@@ -4092,7 +4092,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C337">
         <v>231978</v>
@@ -4103,7 +4103,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C338">
         <v>215377</v>
@@ -4114,7 +4114,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C339">
         <v>254448</v>
@@ -4125,7 +4125,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C340">
         <v>485084</v>
@@ -4136,7 +4136,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C341">
         <v>373172</v>
@@ -4147,7 +4147,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C342">
         <v>664388</v>
@@ -4158,7 +4158,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C343">
         <v>358272</v>
@@ -4169,7 +4169,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C344">
         <v>495393</v>
@@ -4180,7 +4180,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C345">
         <v>546429</v>
@@ -4191,7 +4191,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C346">
         <v>313052</v>
@@ -4202,7 +4202,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C347">
         <v>807844</v>
@@ -4213,7 +4213,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C348">
         <v>485721</v>
@@ -4224,7 +4224,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C349">
         <v>930548</v>
@@ -4235,7 +4235,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C350">
         <v>345905</v>
@@ -4246,7 +4246,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C351">
         <v>468342</v>
@@ -4257,7 +4257,7 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C352">
         <v>272333</v>
@@ -4268,7 +4268,7 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C353">
         <v>529461</v>
@@ -4279,7 +4279,7 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C354">
         <v>290887</v>
@@ -4290,7 +4290,7 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C355">
         <v>558098</v>
@@ -4301,7 +4301,7 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C356">
         <v>755477</v>
@@ -4312,7 +4312,7 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C357">
         <v>460143</v>
@@ -4323,7 +4323,7 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C358">
         <v>224140</v>
@@ -4334,7 +4334,7 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C359">
         <v>234980</v>
@@ -4345,7 +4345,7 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C360">
         <v>847947</v>
@@ -4356,7 +4356,7 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C361">
         <v>238463</v>
@@ -4367,7 +4367,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C362">
         <v>115542</v>
@@ -4378,7 +4378,7 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C363">
         <v>654582</v>
@@ -4389,7 +4389,7 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C364">
         <v>993687</v>
@@ -4400,7 +4400,7 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C365">
         <v>260528</v>
@@ -4411,7 +4411,7 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C366">
         <v>175532</v>
@@ -4422,7 +4422,7 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C367">
         <v>805465</v>
@@ -4433,7 +4433,7 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C368">
         <v>178402</v>
@@ -4444,7 +4444,7 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C369">
         <v>769905</v>
@@ -4455,7 +4455,7 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C370">
         <v>152012</v>
@@ -4466,7 +4466,7 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C371">
         <v>319935</v>
@@ -4477,7 +4477,7 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C372">
         <v>299745</v>
@@ -4488,7 +4488,7 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C373">
         <v>247102</v>
@@ -4499,7 +4499,7 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C374">
         <v>827105</v>
@@ -4510,7 +4510,7 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C375">
         <v>362435</v>
@@ -4521,7 +4521,7 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C376">
         <v>407690</v>
@@ -4532,7 +4532,7 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C377">
         <v>947843</v>
@@ -4543,7 +4543,7 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C378">
         <v>132528</v>
@@ -4554,7 +4554,7 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C379">
         <v>975406</v>
@@ -4565,7 +4565,7 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C380">
         <v>240689</v>
@@ -4576,7 +4576,7 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C381">
         <v>642110</v>
@@ -4587,7 +4587,7 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C382">
         <v>585367</v>
@@ -4598,7 +4598,7 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C383">
         <v>769572</v>
@@ -4609,7 +4609,7 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C384">
         <v>954019</v>
@@ -4620,7 +4620,7 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C385">
         <v>836158</v>
@@ -4631,7 +4631,7 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C386">
         <v>144540</v>
@@ -4642,7 +4642,7 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C387">
         <v>694631</v>
@@ -4653,7 +4653,7 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C388">
         <v>336760</v>
@@ -4664,7 +4664,7 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C389">
         <v>145717</v>
@@ -4675,7 +4675,7 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C390">
         <v>209287</v>
@@ -4686,7 +4686,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C391">
         <v>670985</v>
@@ -4697,7 +4697,7 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C392">
         <v>603773</v>
@@ -4708,7 +4708,7 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C393">
         <v>843593</v>
@@ -4719,7 +4719,7 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C394">
         <v>133587</v>
@@ -4730,7 +4730,7 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C395">
         <v>378542</v>
@@ -4741,7 +4741,7 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C396">
         <v>388799</v>
@@ -4752,7 +4752,7 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C397">
         <v>197612</v>
@@ -4763,7 +4763,7 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C398">
         <v>994379</v>
@@ -4774,7 +4774,7 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C399">
         <v>384583</v>
@@ -4785,7 +4785,7 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C400">
         <v>183749</v>
@@ -4796,7 +4796,7 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C401">
         <v>158032</v>
@@ -4807,7 +4807,7 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C402">
         <v>912349</v>
@@ -4818,7 +4818,7 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C403">
         <v>278016</v>
@@ -4829,7 +4829,7 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C404">
         <v>331912</v>
@@ -4840,7 +4840,7 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C405">
         <v>843804</v>
@@ -4851,7 +4851,7 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C406">
         <v>552637</v>
@@ -4862,7 +4862,7 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C407">
         <v>249675</v>
@@ -4873,7 +4873,7 @@
         <v>407</v>
       </c>
       <c r="B408" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C408">
         <v>706978</v>
@@ -4884,7 +4884,7 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C409">
         <v>938340</v>
@@ -4895,7 +4895,7 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C410">
         <v>565078</v>
@@ -4906,7 +4906,7 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C411">
         <v>971991</v>
@@ -4917,7 +4917,7 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C412">
         <v>954055</v>
@@ -4928,7 +4928,7 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C413">
         <v>370566</v>
@@ -4939,7 +4939,7 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C414">
         <v>890493</v>
@@ -4950,7 +4950,7 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C415">
         <v>638777</v>
@@ -4961,7 +4961,7 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C416">
         <v>265154</v>
@@ -4972,7 +4972,7 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C417">
         <v>694395</v>
@@ -4983,7 +4983,7 @@
         <v>417</v>
       </c>
       <c r="B418" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C418">
         <v>197340</v>
@@ -4994,7 +4994,7 @@
         <v>418</v>
       </c>
       <c r="B419" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C419">
         <v>665296</v>
@@ -5005,7 +5005,7 @@
         <v>419</v>
       </c>
       <c r="B420" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C420">
         <v>479229</v>
@@ -5016,7 +5016,7 @@
         <v>420</v>
       </c>
       <c r="B421" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C421">
         <v>448827</v>
@@ -5027,7 +5027,7 @@
         <v>421</v>
       </c>
       <c r="B422" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C422">
         <v>138045</v>
@@ -5038,7 +5038,7 @@
         <v>422</v>
       </c>
       <c r="B423" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C423">
         <v>411406</v>
@@ -5049,7 +5049,7 @@
         <v>423</v>
       </c>
       <c r="B424" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C424">
         <v>644403</v>
@@ -5060,7 +5060,7 @@
         <v>424</v>
       </c>
       <c r="B425" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C425">
         <v>457504</v>
@@ -5071,7 +5071,7 @@
         <v>425</v>
       </c>
       <c r="B426" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C426">
         <v>644947</v>
@@ -5082,7 +5082,7 @@
         <v>426</v>
       </c>
       <c r="B427" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C427">
         <v>259500</v>
@@ -5093,7 +5093,7 @@
         <v>427</v>
       </c>
       <c r="B428" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C428">
         <v>354200</v>
@@ -5104,7 +5104,7 @@
         <v>428</v>
       </c>
       <c r="B429" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C429">
         <v>657458</v>
@@ -5115,7 +5115,7 @@
         <v>429</v>
       </c>
       <c r="B430" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C430">
         <v>145321</v>
@@ -5126,7 +5126,7 @@
         <v>430</v>
       </c>
       <c r="B431" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C431">
         <v>434554</v>
@@ -5137,7 +5137,7 @@
         <v>431</v>
       </c>
       <c r="B432" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C432">
         <v>446324</v>
@@ -5148,7 +5148,7 @@
         <v>432</v>
       </c>
       <c r="B433" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C433">
         <v>919102</v>
@@ -5159,7 +5159,7 @@
         <v>433</v>
       </c>
       <c r="B434" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C434">
         <v>456074</v>
@@ -5170,7 +5170,7 @@
         <v>434</v>
       </c>
       <c r="B435" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C435">
         <v>287211</v>
@@ -5181,7 +5181,7 @@
         <v>435</v>
       </c>
       <c r="B436" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C436">
         <v>402023</v>
@@ -5192,7 +5192,7 @@
         <v>436</v>
       </c>
       <c r="B437" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C437">
         <v>454389</v>
@@ -5203,7 +5203,7 @@
         <v>437</v>
       </c>
       <c r="B438" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C438">
         <v>595946</v>
@@ -5214,7 +5214,7 @@
         <v>438</v>
       </c>
       <c r="B439" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C439">
         <v>635045</v>
@@ -5225,7 +5225,7 @@
         <v>439</v>
       </c>
       <c r="B440" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C440">
         <v>488363</v>
@@ -5236,7 +5236,7 @@
         <v>440</v>
       </c>
       <c r="B441" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C441">
         <v>616686</v>
@@ -5247,7 +5247,7 @@
         <v>441</v>
       </c>
       <c r="B442" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C442">
         <v>898734</v>
@@ -5258,7 +5258,7 @@
         <v>442</v>
       </c>
       <c r="B443" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C443">
         <v>989630</v>
@@ -5269,7 +5269,7 @@
         <v>443</v>
       </c>
       <c r="B444" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C444">
         <v>496330</v>
@@ -5280,7 +5280,7 @@
         <v>444</v>
       </c>
       <c r="B445" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C445">
         <v>762705</v>
@@ -5291,7 +5291,7 @@
         <v>445</v>
       </c>
       <c r="B446" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C446">
         <v>542700</v>
@@ -5302,7 +5302,7 @@
         <v>446</v>
       </c>
       <c r="B447" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C447">
         <v>819331</v>
@@ -5313,7 +5313,7 @@
         <v>447</v>
       </c>
       <c r="B448" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C448">
         <v>699650</v>
@@ -5324,7 +5324,7 @@
         <v>448</v>
       </c>
       <c r="B449" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C449">
         <v>765456</v>
@@ -5335,7 +5335,7 @@
         <v>449</v>
       </c>
       <c r="B450" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C450">
         <v>757681</v>
@@ -5346,7 +5346,7 @@
         <v>450</v>
       </c>
       <c r="B451" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C451">
         <v>610820</v>
@@ -5357,7 +5357,7 @@
         <v>451</v>
       </c>
       <c r="B452" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C452">
         <v>279174</v>
@@ -5368,7 +5368,7 @@
         <v>452</v>
       </c>
       <c r="B453" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C453">
         <v>600259</v>
@@ -5379,7 +5379,7 @@
         <v>453</v>
       </c>
       <c r="B454" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C454">
         <v>499793</v>
@@ -5390,7 +5390,7 @@
         <v>454</v>
       </c>
       <c r="B455" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C455">
         <v>730985</v>
@@ -5401,7 +5401,7 @@
         <v>455</v>
       </c>
       <c r="B456" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C456">
         <v>467737</v>
@@ -5412,7 +5412,7 @@
         <v>456</v>
       </c>
       <c r="B457" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C457">
         <v>869997</v>
@@ -5423,7 +5423,7 @@
         <v>457</v>
       </c>
       <c r="B458" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C458">
         <v>771337</v>
@@ -5434,7 +5434,7 @@
         <v>458</v>
       </c>
       <c r="B459" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C459">
         <v>885540</v>
@@ -5445,7 +5445,7 @@
         <v>459</v>
       </c>
       <c r="B460" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C460">
         <v>996957</v>
@@ -5456,7 +5456,7 @@
         <v>460</v>
       </c>
       <c r="B461" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C461">
         <v>543138</v>
@@ -5467,7 +5467,7 @@
         <v>461</v>
       </c>
       <c r="B462" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C462">
         <v>455253</v>
@@ -5478,7 +5478,7 @@
         <v>462</v>
       </c>
       <c r="B463" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C463">
         <v>539355</v>
@@ -5489,7 +5489,7 @@
         <v>463</v>
       </c>
       <c r="B464" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C464">
         <v>121199</v>
@@ -5500,7 +5500,7 @@
         <v>464</v>
       </c>
       <c r="B465" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C465">
         <v>358888</v>
@@ -5511,7 +5511,7 @@
         <v>465</v>
       </c>
       <c r="B466" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C466">
         <v>205292</v>
@@ -5522,7 +5522,7 @@
         <v>466</v>
       </c>
       <c r="B467" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C467">
         <v>766306</v>
@@ -5533,7 +5533,7 @@
         <v>467</v>
       </c>
       <c r="B468" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C468">
         <v>120955</v>
@@ -5544,7 +5544,7 @@
         <v>468</v>
       </c>
       <c r="B469" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C469">
         <v>450384</v>
@@ -5555,7 +5555,7 @@
         <v>469</v>
       </c>
       <c r="B470" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C470">
         <v>923525</v>
@@ -5566,7 +5566,7 @@
         <v>470</v>
       </c>
       <c r="B471" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C471">
         <v>487745</v>
@@ -5577,7 +5577,7 @@
         <v>471</v>
       </c>
       <c r="B472" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C472">
         <v>291435</v>
@@ -5588,7 +5588,7 @@
         <v>472</v>
       </c>
       <c r="B473" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C473">
         <v>816594</v>
@@ -5599,7 +5599,7 @@
         <v>473</v>
       </c>
       <c r="B474" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C474">
         <v>246828</v>
@@ -5610,7 +5610,7 @@
         <v>474</v>
       </c>
       <c r="B475" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C475">
         <v>210430</v>
@@ -5621,7 +5621,7 @@
         <v>475</v>
       </c>
       <c r="B476" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C476">
         <v>689881</v>
@@ -5632,7 +5632,7 @@
         <v>476</v>
       </c>
       <c r="B477" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C477">
         <v>310797</v>
@@ -5643,7 +5643,7 @@
         <v>477</v>
       </c>
       <c r="B478" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C478">
         <v>897159</v>
@@ -5654,7 +5654,7 @@
         <v>478</v>
       </c>
       <c r="B479" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C479">
         <v>663285</v>
@@ -5665,7 +5665,7 @@
         <v>479</v>
       </c>
       <c r="B480" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C480">
         <v>820830</v>
@@ -5676,7 +5676,7 @@
         <v>480</v>
       </c>
       <c r="B481" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C481">
         <v>883227</v>
@@ -5687,7 +5687,7 @@
         <v>481</v>
       </c>
       <c r="B482" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C482">
         <v>373552</v>
@@ -5698,7 +5698,7 @@
         <v>482</v>
       </c>
       <c r="B483" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C483">
         <v>910429</v>
@@ -5709,7 +5709,7 @@
         <v>483</v>
       </c>
       <c r="B484" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C484">
         <v>802755</v>
@@ -5720,7 +5720,7 @@
         <v>484</v>
       </c>
       <c r="B485" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C485">
         <v>675661</v>
@@ -5731,7 +5731,7 @@
         <v>485</v>
       </c>
       <c r="B486" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C486">
         <v>289778</v>
@@ -5742,7 +5742,7 @@
         <v>486</v>
       </c>
       <c r="B487" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C487">
         <v>121650</v>
@@ -5753,7 +5753,7 @@
         <v>487</v>
       </c>
       <c r="B488" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C488">
         <v>458589</v>
@@ -5764,7 +5764,7 @@
         <v>488</v>
       </c>
       <c r="B489" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C489">
         <v>681738</v>
@@ -5775,7 +5775,7 @@
         <v>489</v>
       </c>
       <c r="B490" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C490">
         <v>795241</v>
@@ -5786,7 +5786,7 @@
         <v>490</v>
       </c>
       <c r="B491" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C491">
         <v>374947</v>
@@ -5797,7 +5797,7 @@
         <v>491</v>
       </c>
       <c r="B492" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C492">
         <v>735003</v>
@@ -5808,7 +5808,7 @@
         <v>492</v>
       </c>
       <c r="B493" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C493">
         <v>457036</v>
@@ -5819,7 +5819,7 @@
         <v>493</v>
       </c>
       <c r="B494" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C494">
         <v>604479</v>
@@ -5830,7 +5830,7 @@
         <v>494</v>
       </c>
       <c r="B495" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C495">
         <v>169398</v>
@@ -5841,7 +5841,7 @@
         <v>495</v>
       </c>
       <c r="B496" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C496">
         <v>461475</v>
@@ -5852,7 +5852,7 @@
         <v>496</v>
       </c>
       <c r="B497" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C497">
         <v>317805</v>
@@ -5863,7 +5863,7 @@
         <v>497</v>
       </c>
       <c r="B498" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C498">
         <v>289516</v>
@@ -5874,7 +5874,7 @@
         <v>498</v>
       </c>
       <c r="B499" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C499">
         <v>184987</v>
@@ -5885,7 +5885,7 @@
         <v>499</v>
       </c>
       <c r="B500" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C500">
         <v>925597</v>
@@ -5896,7 +5896,7 @@
         <v>500</v>
       </c>
       <c r="B501" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C501">
         <v>338323</v>
@@ -5907,7 +5907,7 @@
         <v>501</v>
       </c>
       <c r="B502" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C502">
         <v>629566</v>
@@ -5918,7 +5918,7 @@
         <v>502</v>
       </c>
       <c r="B503" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C503">
         <v>378954</v>
@@ -5929,7 +5929,7 @@
         <v>503</v>
       </c>
       <c r="B504" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C504">
         <v>583237</v>
@@ -5940,7 +5940,7 @@
         <v>504</v>
       </c>
       <c r="B505" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C505">
         <v>692689</v>
@@ -5951,7 +5951,7 @@
         <v>505</v>
       </c>
       <c r="B506" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C506">
         <v>853249</v>
@@ -5962,7 +5962,7 @@
         <v>506</v>
       </c>
       <c r="B507" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C507">
         <v>336506</v>
@@ -5973,7 +5973,7 @@
         <v>507</v>
       </c>
       <c r="B508" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C508">
         <v>707244</v>
@@ -5984,7 +5984,7 @@
         <v>508</v>
       </c>
       <c r="B509" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C509">
         <v>408464</v>
@@ -5995,7 +5995,7 @@
         <v>509</v>
       </c>
       <c r="B510" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C510">
         <v>417615</v>
@@ -6006,7 +6006,7 @@
         <v>510</v>
       </c>
       <c r="B511" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C511">
         <v>135145</v>
@@ -6017,7 +6017,7 @@
         <v>511</v>
       </c>
       <c r="B512" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C512">
         <v>464041</v>
@@ -6028,7 +6028,7 @@
         <v>512</v>
       </c>
       <c r="B513" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C513">
         <v>267702</v>
@@ -6039,7 +6039,7 @@
         <v>513</v>
       </c>
       <c r="B514" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C514">
         <v>482240</v>
@@ -6050,7 +6050,7 @@
         <v>514</v>
       </c>
       <c r="B515" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C515">
         <v>708408</v>
@@ -6061,7 +6061,7 @@
         <v>515</v>
       </c>
       <c r="B516" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C516">
         <v>222193</v>
@@ -6072,7 +6072,7 @@
         <v>516</v>
       </c>
       <c r="B517" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C517">
         <v>512448</v>
@@ -6083,7 +6083,7 @@
         <v>517</v>
       </c>
       <c r="B518" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C518">
         <v>779257</v>
@@ -6094,7 +6094,7 @@
         <v>518</v>
       </c>
       <c r="B519" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C519">
         <v>622999</v>
@@ -6105,7 +6105,7 @@
         <v>519</v>
       </c>
       <c r="B520" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C520">
         <v>533835</v>
@@ -6116,7 +6116,7 @@
         <v>520</v>
       </c>
       <c r="B521" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C521">
         <v>636431</v>
@@ -6127,7 +6127,7 @@
         <v>521</v>
       </c>
       <c r="B522" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C522">
         <v>797069</v>
@@ -6138,7 +6138,7 @@
         <v>522</v>
       </c>
       <c r="B523" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C523">
         <v>141784</v>
@@ -6149,7 +6149,7 @@
         <v>523</v>
       </c>
       <c r="B524" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C524">
         <v>127058</v>
@@ -6160,7 +6160,7 @@
         <v>524</v>
       </c>
       <c r="B525" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C525">
         <v>701410</v>
@@ -6171,7 +6171,7 @@
         <v>525</v>
       </c>
       <c r="B526" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C526">
         <v>248429</v>
@@ -6182,7 +6182,7 @@
         <v>526</v>
       </c>
       <c r="B527" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C527">
         <v>613287</v>
@@ -6193,7 +6193,7 @@
         <v>527</v>
       </c>
       <c r="B528" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C528">
         <v>469872</v>
@@ -6204,7 +6204,7 @@
         <v>528</v>
       </c>
       <c r="B529" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C529">
         <v>273057</v>
@@ -6215,7 +6215,7 @@
         <v>529</v>
       </c>
       <c r="B530" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C530">
         <v>904777</v>
@@ -6226,7 +6226,7 @@
         <v>530</v>
       </c>
       <c r="B531" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C531">
         <v>370849</v>
@@ -6237,7 +6237,7 @@
         <v>531</v>
       </c>
       <c r="B532" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C532">
         <v>388765</v>
@@ -6248,7 +6248,7 @@
         <v>532</v>
       </c>
       <c r="B533" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C533">
         <v>394474</v>
@@ -6259,7 +6259,7 @@
         <v>533</v>
       </c>
       <c r="B534" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C534">
         <v>227179</v>
@@ -6270,7 +6270,7 @@
         <v>534</v>
       </c>
       <c r="B535" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C535">
         <v>240299</v>
@@ -6281,7 +6281,7 @@
         <v>535</v>
       </c>
       <c r="B536" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C536">
         <v>901642</v>
@@ -6292,7 +6292,7 @@
         <v>536</v>
       </c>
       <c r="B537" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C537">
         <v>265088</v>
@@ -6303,7 +6303,7 @@
         <v>537</v>
       </c>
       <c r="B538" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C538">
         <v>509282</v>
@@ -6314,7 +6314,7 @@
         <v>538</v>
       </c>
       <c r="B539" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C539">
         <v>625274</v>
@@ -6325,7 +6325,7 @@
         <v>539</v>
       </c>
       <c r="B540" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C540">
         <v>134838</v>
@@ -6336,7 +6336,7 @@
         <v>540</v>
       </c>
       <c r="B541" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C541">
         <v>617898</v>
@@ -6347,7 +6347,7 @@
         <v>541</v>
       </c>
       <c r="B542" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C542">
         <v>708165</v>
@@ -6358,7 +6358,7 @@
         <v>542</v>
       </c>
       <c r="B543" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C543">
         <v>627086</v>
@@ -6369,7 +6369,7 @@
         <v>543</v>
       </c>
       <c r="B544" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C544">
         <v>309214</v>
@@ -6380,7 +6380,7 @@
         <v>544</v>
       </c>
       <c r="B545" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C545">
         <v>169914</v>
@@ -6391,7 +6391,7 @@
         <v>545</v>
       </c>
       <c r="B546" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C546">
         <v>772705</v>
@@ -6402,7 +6402,7 @@
         <v>546</v>
       </c>
       <c r="B547" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C547">
         <v>932047</v>
@@ -6413,7 +6413,7 @@
         <v>547</v>
       </c>
       <c r="B548" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C548">
         <v>151300</v>
@@ -6424,7 +6424,7 @@
         <v>548</v>
       </c>
       <c r="B549" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C549">
         <v>428527</v>
@@ -6435,7 +6435,7 @@
         <v>549</v>
       </c>
       <c r="B550" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C550">
         <v>931487</v>
@@ -6446,7 +6446,7 @@
         <v>550</v>
       </c>
       <c r="B551" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C551">
         <v>763172</v>
@@ -6457,7 +6457,7 @@
         <v>551</v>
       </c>
       <c r="B552" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C552">
         <v>213246</v>
@@ -6468,7 +6468,7 @@
         <v>552</v>
       </c>
       <c r="B553" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C553">
         <v>558244</v>
@@ -6479,7 +6479,7 @@
         <v>553</v>
       </c>
       <c r="B554" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C554">
         <v>734064</v>
@@ -6490,7 +6490,7 @@
         <v>554</v>
       </c>
       <c r="B555" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C555">
         <v>704894</v>
@@ -6501,7 +6501,7 @@
         <v>555</v>
       </c>
       <c r="B556" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C556">
         <v>490801</v>
@@ -6512,7 +6512,7 @@
         <v>556</v>
       </c>
       <c r="B557" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C557">
         <v>359155</v>
@@ -6523,7 +6523,7 @@
         <v>557</v>
       </c>
       <c r="B558" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C558">
         <v>921541</v>
@@ -6534,7 +6534,7 @@
         <v>558</v>
       </c>
       <c r="B559" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C559">
         <v>236422</v>
@@ -6545,7 +6545,7 @@
         <v>559</v>
       </c>
       <c r="B560" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C560">
         <v>197334</v>
@@ -6556,7 +6556,7 @@
         <v>560</v>
       </c>
       <c r="B561" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C561">
         <v>212797</v>
@@ -6567,7 +6567,7 @@
         <v>561</v>
       </c>
       <c r="B562" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C562">
         <v>791082</v>
@@ -6578,7 +6578,7 @@
         <v>562</v>
       </c>
       <c r="B563" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C563">
         <v>229230</v>
@@ -6589,7 +6589,7 @@
         <v>563</v>
       </c>
       <c r="B564" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C564">
         <v>592472</v>
@@ -6600,7 +6600,7 @@
         <v>564</v>
       </c>
       <c r="B565" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C565">
         <v>681646</v>
@@ -6611,7 +6611,7 @@
         <v>565</v>
       </c>
       <c r="B566" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C566">
         <v>184801</v>
@@ -6622,7 +6622,7 @@
         <v>566</v>
       </c>
       <c r="B567" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C567">
         <v>204541</v>
@@ -6633,7 +6633,7 @@
         <v>567</v>
       </c>
       <c r="B568" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C568">
         <v>736049</v>
@@ -6644,7 +6644,7 @@
         <v>568</v>
       </c>
       <c r="B569" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C569">
         <v>489442</v>
@@ -6655,7 +6655,7 @@
         <v>569</v>
       </c>
       <c r="B570" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C570">
         <v>956994</v>
@@ -6666,7 +6666,7 @@
         <v>570</v>
       </c>
       <c r="B571" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C571">
         <v>873766</v>
@@ -6677,7 +6677,7 @@
         <v>571</v>
       </c>
       <c r="B572" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C572">
         <v>315821</v>
@@ -6688,7 +6688,7 @@
         <v>572</v>
       </c>
       <c r="B573" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C573">
         <v>710825</v>
@@ -6699,7 +6699,7 @@
         <v>573</v>
       </c>
       <c r="B574" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C574">
         <v>977696</v>
@@ -6710,7 +6710,7 @@
         <v>574</v>
       </c>
       <c r="B575" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C575">
         <v>144003</v>
@@ -6721,7 +6721,7 @@
         <v>575</v>
       </c>
       <c r="B576" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C576">
         <v>719834</v>
@@ -6732,7 +6732,7 @@
         <v>576</v>
       </c>
       <c r="B577" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C577">
         <v>729629</v>
@@ -6743,7 +6743,7 @@
         <v>577</v>
       </c>
       <c r="B578" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C578">
         <v>633737</v>
@@ -6754,7 +6754,7 @@
         <v>578</v>
       </c>
       <c r="B579" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C579">
         <v>142883</v>
@@ -6765,7 +6765,7 @@
         <v>579</v>
       </c>
       <c r="B580" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C580">
         <v>692277</v>
@@ -6776,7 +6776,7 @@
         <v>580</v>
       </c>
       <c r="B581" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C581">
         <v>864094</v>
@@ -6787,7 +6787,7 @@
         <v>581</v>
       </c>
       <c r="B582" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C582">
         <v>532165</v>
@@ -6798,7 +6798,7 @@
         <v>582</v>
       </c>
       <c r="B583" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C583">
         <v>716135</v>
@@ -6809,7 +6809,7 @@
         <v>583</v>
       </c>
       <c r="B584" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C584">
         <v>138368</v>
@@ -6820,7 +6820,7 @@
         <v>584</v>
       </c>
       <c r="B585" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C585">
         <v>330630</v>
@@ -6831,7 +6831,7 @@
         <v>585</v>
       </c>
       <c r="B586" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C586">
         <v>608374</v>
@@ -6842,7 +6842,7 @@
         <v>586</v>
       </c>
       <c r="B587" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C587">
         <v>582192</v>
@@ -6853,7 +6853,7 @@
         <v>587</v>
       </c>
       <c r="B588" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C588">
         <v>802524</v>
@@ -6864,7 +6864,7 @@
         <v>588</v>
       </c>
       <c r="B589" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C589">
         <v>642878</v>
@@ -6875,7 +6875,7 @@
         <v>589</v>
       </c>
       <c r="B590" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C590">
         <v>361409</v>
@@ -6886,7 +6886,7 @@
         <v>590</v>
       </c>
       <c r="B591" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C591">
         <v>975548</v>
@@ -6897,7 +6897,7 @@
         <v>591</v>
       </c>
       <c r="B592" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C592">
         <v>670333</v>
@@ -6908,7 +6908,7 @@
         <v>592</v>
       </c>
       <c r="B593" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C593">
         <v>817140</v>
@@ -6919,7 +6919,7 @@
         <v>593</v>
       </c>
       <c r="B594" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C594">
         <v>495113</v>
@@ -6930,7 +6930,7 @@
         <v>594</v>
       </c>
       <c r="B595" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C595">
         <v>479779</v>
@@ -6941,7 +6941,7 @@
         <v>595</v>
       </c>
       <c r="B596" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C596">
         <v>888258</v>
@@ -6952,7 +6952,7 @@
         <v>596</v>
       </c>
       <c r="B597" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C597">
         <v>373525</v>
@@ -6963,7 +6963,7 @@
         <v>597</v>
       </c>
       <c r="B598" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C598">
         <v>690782</v>
@@ -6974,7 +6974,7 @@
         <v>598</v>
       </c>
       <c r="B599" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C599">
         <v>462705</v>
@@ -6985,7 +6985,7 @@
         <v>599</v>
       </c>
       <c r="B600" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C600">
         <v>341181</v>
@@ -6996,7 +6996,7 @@
         <v>600</v>
       </c>
       <c r="B601" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C601">
         <v>511759</v>
@@ -7007,7 +7007,7 @@
         <v>601</v>
       </c>
       <c r="B602" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C602">
         <v>376561</v>
@@ -7018,7 +7018,7 @@
         <v>602</v>
       </c>
       <c r="B603" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C603">
         <v>439643</v>
@@ -7029,7 +7029,7 @@
         <v>603</v>
       </c>
       <c r="B604" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C604">
         <v>529267</v>
@@ -7040,7 +7040,7 @@
         <v>604</v>
       </c>
       <c r="B605" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C605">
         <v>327243</v>
@@ -7051,7 +7051,7 @@
         <v>605</v>
       </c>
       <c r="B606" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C606">
         <v>706255</v>
@@ -7062,7 +7062,7 @@
         <v>606</v>
       </c>
       <c r="B607" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C607">
         <v>648440</v>
@@ -7073,7 +7073,7 @@
         <v>607</v>
       </c>
       <c r="B608" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C608">
         <v>821089</v>
@@ -7084,7 +7084,7 @@
         <v>608</v>
       </c>
       <c r="B609" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C609">
         <v>377505</v>
@@ -7095,7 +7095,7 @@
         <v>609</v>
       </c>
       <c r="B610" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C610">
         <v>350166</v>
@@ -7106,7 +7106,7 @@
         <v>610</v>
       </c>
       <c r="B611" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C611">
         <v>345152</v>
@@ -7117,7 +7117,7 @@
         <v>611</v>
       </c>
       <c r="B612" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C612">
         <v>867974</v>
@@ -7128,7 +7128,7 @@
         <v>612</v>
       </c>
       <c r="B613" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C613">
         <v>115596</v>
@@ -7139,7 +7139,7 @@
         <v>613</v>
       </c>
       <c r="B614" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C614">
         <v>162458</v>
@@ -7150,7 +7150,7 @@
         <v>614</v>
       </c>
       <c r="B615" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C615">
         <v>135359</v>
@@ -7161,7 +7161,7 @@
         <v>615</v>
       </c>
       <c r="B616" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C616">
         <v>407673</v>
@@ -7172,7 +7172,7 @@
         <v>616</v>
       </c>
       <c r="B617" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C617">
         <v>543749</v>
@@ -7183,7 +7183,7 @@
         <v>617</v>
       </c>
       <c r="B618" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C618">
         <v>599549</v>
@@ -7194,7 +7194,7 @@
         <v>618</v>
       </c>
       <c r="B619" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C619">
         <v>376479</v>
@@ -7205,7 +7205,7 @@
         <v>619</v>
       </c>
       <c r="B620" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C620">
         <v>505808</v>
@@ -7216,7 +7216,7 @@
         <v>620</v>
       </c>
       <c r="B621" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C621">
         <v>329672</v>
@@ -7227,7 +7227,7 @@
         <v>621</v>
       </c>
       <c r="B622" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C622">
         <v>914008</v>
@@ -7238,7 +7238,7 @@
         <v>622</v>
       </c>
       <c r="B623" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C623">
         <v>229223</v>
@@ -7249,7 +7249,7 @@
         <v>623</v>
       </c>
       <c r="B624" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C624">
         <v>139705</v>
@@ -7260,7 +7260,7 @@
         <v>624</v>
       </c>
       <c r="B625" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C625">
         <v>553437</v>
@@ -7271,7 +7271,7 @@
         <v>625</v>
       </c>
       <c r="B626" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C626">
         <v>371948</v>
@@ -7282,7 +7282,7 @@
         <v>626</v>
       </c>
       <c r="B627" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C627">
         <v>808758</v>
@@ -7293,7 +7293,7 @@
         <v>627</v>
       </c>
       <c r="B628" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C628">
         <v>652496</v>
@@ -7304,7 +7304,7 @@
         <v>628</v>
       </c>
       <c r="B629" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C629">
         <v>390187</v>
@@ -7315,7 +7315,7 @@
         <v>629</v>
       </c>
       <c r="B630" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C630">
         <v>830108</v>
@@ -7326,7 +7326,7 @@
         <v>630</v>
       </c>
       <c r="B631" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C631">
         <v>387128</v>
@@ -7337,7 +7337,7 @@
         <v>631</v>
       </c>
       <c r="B632" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C632">
         <v>517550</v>
@@ -7348,7 +7348,7 @@
         <v>632</v>
       </c>
       <c r="B633" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C633">
         <v>541490</v>
@@ -7359,7 +7359,7 @@
         <v>633</v>
       </c>
       <c r="B634" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C634">
         <v>894122</v>
@@ -7370,7 +7370,7 @@
         <v>634</v>
       </c>
       <c r="B635" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C635">
         <v>450773</v>
@@ -7381,7 +7381,7 @@
         <v>635</v>
       </c>
       <c r="B636" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C636">
         <v>173509</v>
@@ -7392,7 +7392,7 @@
         <v>636</v>
       </c>
       <c r="B637" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C637">
         <v>266376</v>
@@ -7403,7 +7403,7 @@
         <v>637</v>
       </c>
       <c r="B638" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C638">
         <v>819332</v>
@@ -7414,7 +7414,7 @@
         <v>638</v>
       </c>
       <c r="B639" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C639">
         <v>180069</v>
@@ -7425,7 +7425,7 @@
         <v>639</v>
       </c>
       <c r="B640" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C640">
         <v>861210</v>
@@ -7436,7 +7436,7 @@
         <v>640</v>
       </c>
       <c r="B641" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C641">
         <v>617710</v>
@@ -7447,7 +7447,7 @@
         <v>641</v>
       </c>
       <c r="B642" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C642">
         <v>481678</v>
@@ -7458,7 +7458,7 @@
         <v>642</v>
       </c>
       <c r="B643" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C643">
         <v>843425</v>
@@ -7469,7 +7469,7 @@
         <v>643</v>
       </c>
       <c r="B644" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C644">
         <v>881065</v>
@@ -7480,7 +7480,7 @@
         <v>644</v>
       </c>
       <c r="B645" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C645">
         <v>554506</v>
@@ -7491,7 +7491,7 @@
         <v>645</v>
       </c>
       <c r="B646" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C646">
         <v>555328</v>
@@ -7502,7 +7502,7 @@
         <v>646</v>
       </c>
       <c r="B647" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C647">
         <v>550320</v>
@@ -7513,7 +7513,7 @@
         <v>647</v>
       </c>
       <c r="B648" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C648">
         <v>530843</v>
@@ -7524,7 +7524,7 @@
         <v>648</v>
       </c>
       <c r="B649" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C649">
         <v>286193</v>
@@ -7535,7 +7535,7 @@
         <v>649</v>
       </c>
       <c r="B650" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C650">
         <v>948934</v>
@@ -7546,7 +7546,7 @@
         <v>650</v>
       </c>
       <c r="B651" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C651">
         <v>922434</v>
@@ -7557,7 +7557,7 @@
         <v>651</v>
       </c>
       <c r="B652" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C652">
         <v>981060</v>
@@ -7568,7 +7568,7 @@
         <v>652</v>
       </c>
       <c r="B653" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C653">
         <v>404970</v>
@@ -7579,7 +7579,7 @@
         <v>653</v>
       </c>
       <c r="B654" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C654">
         <v>427488</v>
@@ -7590,7 +7590,7 @@
         <v>654</v>
       </c>
       <c r="B655" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C655">
         <v>420699</v>
@@ -7601,7 +7601,7 @@
         <v>655</v>
       </c>
       <c r="B656" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C656">
         <v>834407</v>
@@ -7612,7 +7612,7 @@
         <v>656</v>
       </c>
       <c r="B657" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C657">
         <v>280169</v>
@@ -7623,7 +7623,7 @@
         <v>657</v>
       </c>
       <c r="B658" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C658">
         <v>914637</v>
@@ -7634,7 +7634,7 @@
         <v>658</v>
       </c>
       <c r="B659" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C659">
         <v>270662</v>
@@ -7645,7 +7645,7 @@
         <v>659</v>
       </c>
       <c r="B660" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C660">
         <v>715486</v>
@@ -7656,7 +7656,7 @@
         <v>660</v>
       </c>
       <c r="B661" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C661">
         <v>432676</v>
@@ -7667,7 +7667,7 @@
         <v>661</v>
       </c>
       <c r="B662" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C662">
         <v>892962</v>
@@ -7678,7 +7678,7 @@
         <v>662</v>
       </c>
       <c r="B663" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C663">
         <v>135108</v>
@@ -7689,7 +7689,7 @@
         <v>663</v>
       </c>
       <c r="B664" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C664">
         <v>670421</v>
@@ -7700,7 +7700,7 @@
         <v>664</v>
       </c>
       <c r="B665" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C665">
         <v>345988</v>
@@ -7711,7 +7711,7 @@
         <v>665</v>
       </c>
       <c r="B666" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C666">
         <v>524597</v>
@@ -7722,7 +7722,7 @@
         <v>666</v>
       </c>
       <c r="B667" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C667">
         <v>672267</v>
@@ -7733,7 +7733,7 @@
         <v>667</v>
       </c>
       <c r="B668" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C668">
         <v>636662</v>
@@ -7744,7 +7744,7 @@
         <v>668</v>
       </c>
       <c r="B669" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C669">
         <v>516093</v>
@@ -7755,7 +7755,7 @@
         <v>669</v>
       </c>
       <c r="B670" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C670">
         <v>991754</v>
@@ -7766,7 +7766,7 @@
         <v>670</v>
       </c>
       <c r="B671" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C671">
         <v>944555</v>
@@ -7777,7 +7777,7 @@
         <v>671</v>
       </c>
       <c r="B672" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C672">
         <v>968440</v>
@@ -7788,7 +7788,7 @@
         <v>672</v>
       </c>
       <c r="B673" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C673">
         <v>359661</v>
@@ -7799,7 +7799,7 @@
         <v>673</v>
       </c>
       <c r="B674" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C674">
         <v>343283</v>
@@ -7810,7 +7810,7 @@
         <v>674</v>
       </c>
       <c r="B675" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C675">
         <v>900613</v>
@@ -7821,7 +7821,7 @@
         <v>675</v>
       </c>
       <c r="B676" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C676">
         <v>968650</v>
@@ -7832,7 +7832,7 @@
         <v>676</v>
       </c>
       <c r="B677" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C677">
         <v>219369</v>
@@ -7843,7 +7843,7 @@
         <v>677</v>
       </c>
       <c r="B678" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C678">
         <v>469518</v>
@@ -7854,7 +7854,7 @@
         <v>678</v>
       </c>
       <c r="B679" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C679">
         <v>969756</v>
@@ -7865,7 +7865,7 @@
         <v>679</v>
       </c>
       <c r="B680" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C680">
         <v>653263</v>
@@ -7876,7 +7876,7 @@
         <v>680</v>
       </c>
       <c r="B681" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C681">
         <v>951155</v>
@@ -7887,7 +7887,7 @@
         <v>681</v>
       </c>
       <c r="B682" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C682">
         <v>563746</v>
@@ -7898,7 +7898,7 @@
         <v>682</v>
       </c>
       <c r="B683" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C683">
         <v>190008</v>
@@ -7909,7 +7909,7 @@
         <v>683</v>
       </c>
       <c r="B684" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C684">
         <v>206273</v>
@@ -7920,7 +7920,7 @@
         <v>684</v>
       </c>
       <c r="B685" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C685">
         <v>365193</v>
@@ -7931,7 +7931,7 @@
         <v>685</v>
       </c>
       <c r="B686" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C686">
         <v>517492</v>
@@ -7942,7 +7942,7 @@
         <v>686</v>
       </c>
       <c r="B687" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C687">
         <v>281431</v>
@@ -7953,7 +7953,7 @@
         <v>687</v>
       </c>
       <c r="B688" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C688">
         <v>125819</v>
@@ -7964,7 +7964,7 @@
         <v>688</v>
       </c>
       <c r="B689" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C689">
         <v>252435</v>
@@ -7975,7 +7975,7 @@
         <v>689</v>
       </c>
       <c r="B690" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C690">
         <v>304002</v>
@@ -7986,7 +7986,7 @@
         <v>690</v>
       </c>
       <c r="B691" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C691">
         <v>459475</v>
@@ -7997,7 +7997,7 @@
         <v>691</v>
       </c>
       <c r="B692" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C692">
         <v>661707</v>
@@ -8008,7 +8008,7 @@
         <v>692</v>
       </c>
       <c r="B693" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C693">
         <v>956180</v>
@@ -8019,7 +8019,7 @@
         <v>693</v>
       </c>
       <c r="B694" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C694">
         <v>440389</v>
@@ -8030,7 +8030,7 @@
         <v>694</v>
       </c>
       <c r="B695" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C695">
         <v>558774</v>
@@ -8041,7 +8041,7 @@
         <v>695</v>
       </c>
       <c r="B696" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C696">
         <v>521247</v>
@@ -8052,7 +8052,7 @@
         <v>696</v>
       </c>
       <c r="B697" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C697">
         <v>485658</v>
@@ -8063,7 +8063,7 @@
         <v>697</v>
       </c>
       <c r="B698" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C698">
         <v>571964</v>
@@ -8074,7 +8074,7 @@
         <v>698</v>
       </c>
       <c r="B699" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C699">
         <v>317799</v>
@@ -8085,7 +8085,7 @@
         <v>699</v>
       </c>
       <c r="B700" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C700">
         <v>342025</v>
@@ -8096,7 +8096,7 @@
         <v>700</v>
       </c>
       <c r="B701" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C701">
         <v>496357</v>
@@ -8107,7 +8107,7 @@
         <v>701</v>
       </c>
       <c r="B702" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C702">
         <v>474068</v>
@@ -8118,7 +8118,7 @@
         <v>702</v>
       </c>
       <c r="B703" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C703">
         <v>301262</v>
@@ -8129,7 +8129,7 @@
         <v>703</v>
       </c>
       <c r="B704" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C704">
         <v>655650</v>
@@ -8140,7 +8140,7 @@
         <v>704</v>
       </c>
       <c r="B705" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C705">
         <v>801791</v>
@@ -8151,7 +8151,7 @@
         <v>705</v>
       </c>
       <c r="B706" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C706">
         <v>167968</v>
@@ -8162,7 +8162,7 @@
         <v>706</v>
       </c>
       <c r="B707" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C707">
         <v>724958</v>
@@ -8173,7 +8173,7 @@
         <v>707</v>
       </c>
       <c r="B708" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C708">
         <v>798388</v>
@@ -8184,7 +8184,7 @@
         <v>708</v>
       </c>
       <c r="B709" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C709">
         <v>784072</v>
@@ -8195,7 +8195,7 @@
         <v>709</v>
       </c>
       <c r="B710" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C710">
         <v>895964</v>
@@ -8206,7 +8206,7 @@
         <v>710</v>
       </c>
       <c r="B711" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C711">
         <v>470576</v>
@@ -8217,7 +8217,7 @@
         <v>711</v>
       </c>
       <c r="B712" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C712">
         <v>955278</v>
@@ -8228,7 +8228,7 @@
         <v>712</v>
       </c>
       <c r="B713" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C713">
         <v>708690</v>
@@ -8239,7 +8239,7 @@
         <v>713</v>
       </c>
       <c r="B714" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C714">
         <v>114058</v>
@@ -8250,7 +8250,7 @@
         <v>714</v>
       </c>
       <c r="B715" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C715">
         <v>369906</v>
@@ -8261,7 +8261,7 @@
         <v>715</v>
       </c>
       <c r="B716" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C716">
         <v>568357</v>
@@ -8272,7 +8272,7 @@
         <v>716</v>
       </c>
       <c r="B717" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C717">
         <v>117451</v>
@@ -8283,7 +8283,7 @@
         <v>717</v>
       </c>
       <c r="B718" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C718">
         <v>578726</v>
@@ -8294,7 +8294,7 @@
         <v>718</v>
       </c>
       <c r="B719" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C719">
         <v>914896</v>
@@ -8305,7 +8305,7 @@
         <v>719</v>
       </c>
       <c r="B720" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C720">
         <v>233701</v>
@@ -8316,7 +8316,7 @@
         <v>720</v>
       </c>
       <c r="B721" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C721">
         <v>862947</v>
@@ -8327,7 +8327,7 @@
         <v>721</v>
       </c>
       <c r="B722" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C722">
         <v>733149</v>
@@ -8338,7 +8338,7 @@
         <v>722</v>
       </c>
       <c r="B723" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C723">
         <v>264025</v>
@@ -8349,7 +8349,7 @@
         <v>723</v>
       </c>
       <c r="B724" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C724">
         <v>802944</v>
@@ -8360,7 +8360,7 @@
         <v>724</v>
       </c>
       <c r="B725" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C725">
         <v>877403</v>
@@ -8371,7 +8371,7 @@
         <v>725</v>
       </c>
       <c r="B726" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C726">
         <v>615071</v>
@@ -8382,7 +8382,7 @@
         <v>726</v>
       </c>
       <c r="B727" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C727">
         <v>121598</v>
@@ -8393,7 +8393,7 @@
         <v>727</v>
       </c>
       <c r="B728" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C728">
         <v>589524</v>
@@ -8404,7 +8404,7 @@
         <v>728</v>
       </c>
       <c r="B729" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C729">
         <v>829353</v>
@@ -8415,7 +8415,7 @@
         <v>729</v>
       </c>
       <c r="B730" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C730">
         <v>311403</v>
@@ -8426,7 +8426,7 @@
         <v>730</v>
       </c>
       <c r="B731" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C731">
         <v>575341</v>
@@ -8437,7 +8437,7 @@
         <v>731</v>
       </c>
       <c r="B732" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C732">
         <v>972525</v>
@@ -8448,7 +8448,7 @@
         <v>732</v>
       </c>
       <c r="B733" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C733">
         <v>390698</v>
@@ -8459,7 +8459,7 @@
         <v>733</v>
       </c>
       <c r="B734" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C734">
         <v>953593</v>
@@ -8470,7 +8470,7 @@
         <v>734</v>
       </c>
       <c r="B735" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C735">
         <v>779373</v>
@@ -8481,7 +8481,7 @@
         <v>735</v>
       </c>
       <c r="B736" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C736">
         <v>563727</v>
@@ -8492,7 +8492,7 @@
         <v>736</v>
       </c>
       <c r="B737" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C737">
         <v>571369</v>
@@ -8503,7 +8503,7 @@
         <v>737</v>
       </c>
       <c r="B738" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C738">
         <v>900993</v>
@@ -8514,7 +8514,7 @@
         <v>738</v>
       </c>
       <c r="B739" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C739">
         <v>269593</v>
@@ -8525,7 +8525,7 @@
         <v>739</v>
       </c>
       <c r="B740" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C740">
         <v>370843</v>
@@ -8536,7 +8536,7 @@
         <v>740</v>
       </c>
       <c r="B741" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C741">
         <v>560416</v>
@@ -8547,7 +8547,7 @@
         <v>741</v>
       </c>
       <c r="B742" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C742">
         <v>268448</v>
@@ -8558,7 +8558,7 @@
         <v>742</v>
       </c>
       <c r="B743" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C743">
         <v>963969</v>
@@ -8569,7 +8569,7 @@
         <v>743</v>
       </c>
       <c r="B744" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C744">
         <v>225775</v>
@@ -8580,7 +8580,7 @@
         <v>744</v>
       </c>
       <c r="B745" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C745">
         <v>410543</v>
@@ -8591,7 +8591,7 @@
         <v>745</v>
       </c>
       <c r="B746" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C746">
         <v>514541</v>
@@ -8602,7 +8602,7 @@
         <v>746</v>
       </c>
       <c r="B747" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C747">
         <v>161300</v>
@@ -8613,7 +8613,7 @@
         <v>747</v>
       </c>
       <c r="B748" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C748">
         <v>507445</v>
@@ -8624,7 +8624,7 @@
         <v>748</v>
       </c>
       <c r="B749" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C749">
         <v>425568</v>
@@ -8635,7 +8635,7 @@
         <v>749</v>
       </c>
       <c r="B750" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C750">
         <v>577824</v>
@@ -8646,7 +8646,7 @@
         <v>750</v>
       </c>
       <c r="B751" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C751">
         <v>455379</v>

--- a/Tables/PatientInsurancePolicy.xlsx
+++ b/Tables/PatientInsurancePolicy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Вячеслав\Desktop\Stomatology\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934CEF49-EC30-4C91-A838-E685811FF589}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3205A162-9554-472B-BEB6-B8192568AFFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2020" yWindow="0" windowWidth="15730" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
     <t>Номер полиса</t>
   </si>
   <si>
-    <t>Id пациента</t>
+    <t>Пациент</t>
   </si>
 </sst>
 </file>
@@ -386,7 +386,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
